--- a/CountryData/Colombia/Colombia_Workbook.xlsx
+++ b/CountryData/Colombia/Colombia_Workbook.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Colombia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8CFF664F-0D24-495F-A742-7EC41E4B1649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:40009_{8CFF664F-0D24-495F-A742-7EC41E4B1649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B486283-1B7B-441F-808D-4A67D50892D0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colombia_Popup" sheetId="1" r:id="rId1"/>
@@ -73,115 +73,144 @@
     <t>ELLED Relevant Legislation:</t>
   </si>
   <si>
-    <r>
-      <t>Colombian Constitution, 2005</t>
+    <t>ELLED Relevant News:</t>
+  </si>
+  <si>
+    <t>Analysis and Case Studies:</t>
+  </si>
+  <si>
+    <t>Relevant Initiatives:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecopetrol Local Hiring Strategy for Suppliers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">—2014 Annual Report </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Colombian Constitution, 2005 </t>
     </r>
     <r>
       <rPr>
+        <u/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Spanish) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>National Mining Development Plan with a 2025 Horizon, 2017</t>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">National Mining Development Plan with a 2025 Horizon, 2017 </t>
     </r>
     <r>
       <rPr>
+        <u/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Spanish) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>National Plan for Mining Management, 2014</t>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">National Plan for Mining Management, 2014 </t>
     </r>
     <r>
       <rPr>
+        <u/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Spanish) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>National Energy Plan 2050, 2019</t>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">National Energy Plan 2050, 2019 </t>
     </r>
     <r>
       <rPr>
+        <u/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Spanish) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Law on the General Royalties System 2020</t>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Law on the General Royalties System 2020 </t>
     </r>
     <r>
       <rPr>
+        <u/>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Spanish) </t>
-    </r>
-  </si>
-  <si>
-    <t>ELLED Relevant News:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">November 2019 – </t>
-    </r>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Billionaire investment of the mining sector in goods and services</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Spanish) </t>
-    </r>
-  </si>
-  <si>
-    <t>Analysis and Case Studies:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Maennling and Toledano (2019) – </t>
+      <t>November 2019 –</t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0563C1"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Billionaire investment of the mining sector in goods and services </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Spanish)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Maennling and Toledano (2019) – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -190,101 +219,47 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Esteban and González (2016) – </t>
-    </r>
+    <t>National Program for the Development of Suppliers Of Goods And Services for Hydrocarbons and Large-Scale Mining (Spanish) </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Policy Evaluation to Promote Regional Economic Development through Productive Chains in the Mining Industry an Approach from Systems Dynamics</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (Spanish)</t>
+      <t xml:space="preserve">Esteban and González (2016) – </t>
     </r>
     <r>
       <rPr>
+        <u/>
         <sz val="11"/>
-        <color rgb="FF0563C1"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>Relevant Initiatives:</t>
-  </si>
-  <si>
-    <r>
-      <t>National Program for the Development of Suppliers Of Goods And Services for Hydrocarbons and Large-Scale Mining</t>
+      <t xml:space="preserve">Policy Evaluation to Promote Regional Economic Development through Productive Chains in the Mining Industry an Approach from Systems Dynamics </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0563C1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Spanish) </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecopetrol Local Hiring Strategy for Suppliers </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>—</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0563C1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2014 Annual Report </t>
+      <t>(Spanish)</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="30" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -415,13 +390,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -460,43 +428,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -504,9 +487,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -901,64 +884,72 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1317,218 +1308,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:K32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J29"/>
+      <selection sqref="A1:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.85546875" customWidth="1"/>
+    <col min="1" max="1" width="59.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="15"/>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B6" s="17">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:2" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="8" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="B8" s="15"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-    </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="15"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="12"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="18"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
+      <c r="B29" s="12"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="19"/>
-    </row>
-    <row r="31" spans="1:11" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="13"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="13"/>
+    </row>
+    <row r="32" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=CO"/>
-    <hyperlink ref="B3" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=CO"/>
-    <hyperlink ref="B4" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=CO"/>
-    <hyperlink ref="B5" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking"/>
-    <hyperlink ref="B6" r:id="rId5" display="https://eiti.org/colombia"/>
-    <hyperlink ref="A9" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/49/export-basket"/>
-    <hyperlink ref="A12" r:id="rId7" display="https://www.constituteproject.org/constitution/Colombia_2005.pdf"/>
-    <hyperlink ref="A13" r:id="rId8" display="https://www1.upme.gov.co/simco/PlaneacionSector/Documents/PNDM_Dic2017.pdf"/>
-    <hyperlink ref="A14" r:id="rId9" display="https://www1.upme.gov.co/simco/PlaneacionSector/Documents/PNOM_EN_EXTENSO.pdf"/>
-    <hyperlink ref="A15" r:id="rId10" display="https://www1.upme.gov.co/DemandaEnergetica/PEN_documento_para_consulta.pdf"/>
-    <hyperlink ref="A16" r:id="rId11" display="https://www.funcionpublica.gov.co/eva/gestornormativo/norma_pdf.php?i=142858"/>
-    <hyperlink ref="A19" r:id="rId12" display="https://www.portafolio.co/contenido-patrocinado/billonaria-inversion-del-sector-minero-en-bienes-y-servicios-535676"/>
-    <hyperlink ref="A22" r:id="rId13" display="https://scholarship.law.columbia.edu/cgi/viewcontent.cgi?article=1072&amp;context=sustainable_investment_staffpubs"/>
-    <hyperlink ref="A23" r:id="rId14" display="https://repositorio.unal.edu.co/handle/unal/57352"/>
-    <hyperlink ref="A27" r:id="rId15" display="https://www.redsudamericana.org/sites/default/files/doc/EP07 - Colombia (1).pdf"/>
-    <hyperlink ref="A28" r:id="rId16" display="https://www.ecopetrol.com.co/wps/portal/Home/es/GruposInteres/GestionDeAbastecimiento/RelacionamientoConProveedore"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=CO" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=CO" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=CO" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" display="https://eiti.org/colombia" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A10" r:id="rId6" display="https://atlas.cid.harvard.edu/countries/49/export-basket" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A13" r:id="rId7" display="Colombian Constitution, 2005 (Spanish) " xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A14" r:id="rId8" display="National Mining Development Plan with a 2025 Horizon, 2017 (Spanish) " xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A15" r:id="rId9" display="National Plan for Mining Management, 2014 (Spanish) " xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A16" r:id="rId10" display="National Energy Plan 2050, 2019 (Spanish) " xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A17" r:id="rId11" display="Law on the General Royalties System 2020 (Spanish) " xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A20" r:id="rId12" display="November 2019 – Billionaire investment of the mining sector in goods and services (Spanish) " xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A23" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A24" r:id="rId14" display="Esteban and González (2016) – Policy Evaluation to Promote Regional Economic Development through Productive Chains in the Mining Industry an Approach from Systems Dynamics (Spanish) " xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A28" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A29" r:id="rId16" display="https://www.ecopetrol.com.co/wps/portal/Home/es/GruposInteres/GestionDeAbastecimiento/RelacionamientoConProveedore" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
-  <webPublishItems count="1">
-    <webPublishItem id="24812" divId="Colombia_Workbook_24812" sourceType="range" sourceRef="A1:J29" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Colombia\Colombia_Popup.htm" autoRepublish="1"/>
+  <webPublishItems count="3">
+    <webPublishItem id="8459" divId="Colombia_Workbook_8459" sourceType="range" sourceRef="A1:M30" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Colombia\Colombia_Popup.htm" autoRepublish="1"/>
+    <webPublishItem id="30626" divId="Colombia_Workbook_30626" sourceType="range" sourceRef="A1:N30" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Colombia\Colombia_Popup.htm" autoRepublish="1"/>
+    <webPublishItem id="24812" divId="Colombia_Workbook_24812" sourceType="range" sourceRef="A2:J30" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Colombia\Colombia_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/CountryData/Colombia/Colombia_Workbook.xlsx
+++ b/CountryData/Colombia/Colombia_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Colombia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:40009_{8CFF664F-0D24-495F-A742-7EC41E4B1649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B486283-1B7B-441F-808D-4A67D50892D0}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:40009_{8CFF664F-0D24-495F-A742-7EC41E4B1649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8923F2BC-2CCA-41E4-8ABC-63768757B674}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1538,10 +1538,8 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
-  <webPublishItems count="3">
-    <webPublishItem id="8459" divId="Colombia_Workbook_8459" sourceType="range" sourceRef="A1:M30" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Colombia\Colombia_Popup.htm" autoRepublish="1"/>
-    <webPublishItem id="30626" divId="Colombia_Workbook_30626" sourceType="range" sourceRef="A1:N30" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Colombia\Colombia_Popup.htm" autoRepublish="1"/>
-    <webPublishItem id="24812" divId="Colombia_Workbook_24812" sourceType="range" sourceRef="A2:J30" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Colombia\Colombia_Popup.htm" autoRepublish="1"/>
+  <webPublishItems count="1">
+    <webPublishItem id="18947" divId="Colombia_Workbook_18947" sourceType="range" sourceRef="A1:M30" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Colombia\Colombia_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/CountryData/Colombia/Colombia_Workbook.xlsx
+++ b/CountryData/Colombia/Colombia_Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Colombia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:40009_{8CFF664F-0D24-495F-A742-7EC41E4B1649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8923F2BC-2CCA-41E4-8ABC-63768757B674}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:40009_{8CFF664F-0D24-495F-A742-7EC41E4B1649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A3D8354-1B5A-4655-9975-EC6C5DDC99CE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1539,7 +1539,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId17"/>
   <webPublishItems count="1">
-    <webPublishItem id="18947" divId="Colombia_Workbook_18947" sourceType="range" sourceRef="A1:M30" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Colombia\Colombia_Popup.htm" autoRepublish="1"/>
+    <webPublishItem id="25482" divId="Colombia_Workbook_25482" sourceType="range" sourceRef="A1:M30" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Colombia\Colombia_Popup.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/CountryData/Colombia/Colombia_Workbook.xlsx
+++ b/CountryData/Colombia/Colombia_Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Colombia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:40009_{8CFF664F-0D24-495F-A742-7EC41E4B1649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A3D8354-1B5A-4655-9975-EC6C5DDC99CE}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:40009_{8CFF664F-0D24-495F-A742-7EC41E4B1649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BF06122-9CC3-4651-942F-3BE04ECE1749}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colombia_Popup" sheetId="1" r:id="rId1"/>
@@ -52,21 +52,6 @@
     <t>Satisfactory Progress</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">* </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">World Bank staff estimates through the WITS platform from the Comtrade database maintained by the United Nations Statistics Division. </t>
-    </r>
-  </si>
-  <si>
     <t>Link to key economic information.</t>
   </si>
   <si>
@@ -254,12 +239,27 @@
       <t>(Spanish)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">World Bank staff estimates through the WITS platform from the Comtrade database maintained by the United Nations Statistics Division. </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -441,19 +441,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="Calibri"/>
@@ -478,14 +465,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -887,11 +881,8 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -904,15 +895,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -924,32 +909,47 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1309,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K32"/>
+  <dimension ref="A2:M33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,198 +1321,518 @@
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="12">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-    </row>
-    <row r="10" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="15"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="15"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="15"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="15"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="15"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="B20" s="16"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+    </row>
+    <row r="28" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+    </row>
+    <row r="29" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="12"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="13"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="13"/>
-    </row>
-    <row r="32" spans="1:11" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+    </row>
+    <row r="32" spans="1:13" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
